--- a/timelogs/time_logs.xlsx
+++ b/timelogs/time_logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vult-my.sharepoint.com/personal/nedas_janusauskas_mif_stud_vu_lt/Documents/3 Pusmetis/PBL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="133" documentId="11_9248D3AD81FF8E02EF2EE2999A3E8C1851038385" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05568CA0-3207-8740-8231-8A1460186ABC}"/>
+  <xr:revisionPtr revIDLastSave="274" documentId="11_9248D3AD81FF8E02EF2EE2999A3E8C1851038385" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28100A9B-5028-9A45-A6D5-B3F203827051}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="14800" windowHeight="8020" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nedas_J" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>Week 1</t>
   </si>
@@ -47,10 +48,10 @@
     <t>Week 1 (working in a group)</t>
   </si>
   <si>
-    <t>Week 2 (working in a group)</t>
+    <t>Week 1 (total working  hours)</t>
   </si>
   <si>
-    <t>Week 1 (total working  hours)</t>
+    <t>Week 2 (working in a group)</t>
   </si>
   <si>
     <t>Week 2 (total working hours)</t>
@@ -60,6 +61,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[hh]:mm"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,7 +104,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -418,7 +422,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -436,7 +440,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>3.125E-2</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
   </sheetData>
@@ -449,7 +453,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -466,6 +470,9 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="1">
+        <v>0.14930555555555555</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -477,7 +484,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -494,6 +501,9 @@
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B2" s="1">
+        <v>0.13541666666666666</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -502,17 +512,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923CEF60-EE42-4C46-B16B-E987EC9AEAC6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.125</v>
       </c>
     </row>
   </sheetData>
@@ -525,7 +546,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -546,17 +567,20 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <f>SUM(Nedas_J!B1, Adomas_J!B1, Aistė_G!B1, Gabrielius_D!B1) + 4 * B1</f>
-        <v>0.53472222222222232</v>
+        <v>0.55555555555555558</v>
       </c>
       <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>8.3333333333333329E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -565,7 +589,7 @@
       </c>
       <c r="B4" s="3">
         <f>SUM(Nedas_J!B2, Adomas_J!B2, Aistė_G!B2, Gabrielius_D!B2) + 4 * B3</f>
-        <v>3.125E-2</v>
+        <v>1.0763888888888888</v>
       </c>
     </row>
   </sheetData>

--- a/timelogs/time_logs.xlsx
+++ b/timelogs/time_logs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25721"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vult-my.sharepoint.com/personal/nedas_janusauskas_mif_stud_vu_lt/Documents/3 Pusmetis/PBL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="274" documentId="11_9248D3AD81FF8E02EF2EE2999A3E8C1851038385" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28100A9B-5028-9A45-A6D5-B3F203827051}"/>
+  <xr:revisionPtr revIDLastSave="314" documentId="11_9248D3AD81FF8E02EF2EE2999A3E8C1851038385" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{502138B4-B2F0-4B18-BD4B-47FD4F337177}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nedas_J" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>Week 1</t>
   </si>
@@ -45,6 +45,9 @@
     <t>Week 2</t>
   </si>
   <si>
+    <t>Week 3</t>
+  </si>
+  <si>
     <t>Week 1 (working in a group)</t>
   </si>
   <si>
@@ -55,6 +58,12 @@
   </si>
   <si>
     <t>Week 2 (total working hours)</t>
+  </si>
+  <si>
+    <t>Week 3 (working in a group)</t>
+  </si>
+  <si>
+    <t>Week 3 (total working hours)</t>
   </si>
 </sst>
 </file>
@@ -64,7 +73,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[hh]:mm"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,7 +116,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Įprastas" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -419,15 +428,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,12 +444,20 @@
         <v>0.17361111111111113</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.54166666666666663</v>
       </c>
     </row>
   </sheetData>
@@ -450,15 +467,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCAF3D7-75AC-4D5B-A4BA-6C0DF3B5896A}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,12 +483,20 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>0.14930555555555555</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.17361111111111113</v>
       </c>
     </row>
   </sheetData>
@@ -481,15 +506,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D83133-5BF0-4B81-B3C4-8ED758F5ACF4}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -497,12 +522,20 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>0.13541666666666666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.25347222222222221</v>
       </c>
     </row>
   </sheetData>
@@ -512,15 +545,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923CEF60-EE42-4C46-B16B-E987EC9AEAC6}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -528,12 +561,20 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
         <v>0.125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.18402777777777779</v>
       </c>
     </row>
   </sheetData>
@@ -543,31 +584,31 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4035CA1-48AA-4D41-9C1D-EBE4F8897610}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScale="189" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1">
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
         <f>SUM(Nedas_J!B1, Adomas_J!B1, Aistė_G!B1, Gabrielius_D!B1) + 4 * B1</f>
@@ -575,21 +616,38 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="3">
         <f>SUM(Nedas_J!B2, Adomas_J!B2, Aistė_G!B2, Gabrielius_D!B2) + 4 * B3</f>
         <v>1.0763888888888888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3">
+        <f>SUM(Nedas_J!B3, Adomas_J!B3, Aistė_G!B3, Gabrielius_D!B3) + 4 * B5</f>
+        <v>1.1527777777777777</v>
       </c>
     </row>
   </sheetData>

--- a/timelogs/time_logs.xlsx
+++ b/timelogs/time_logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vult-my.sharepoint.com/personal/nedas_janusauskas_mif_stud_vu_lt/Documents/3 Pusmetis/PBL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="314" documentId="11_9248D3AD81FF8E02EF2EE2999A3E8C1851038385" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{502138B4-B2F0-4B18-BD4B-47FD4F337177}"/>
+  <xr:revisionPtr revIDLastSave="342" documentId="11_9248D3AD81FF8E02EF2EE2999A3E8C1851038385" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF7B02AA-6DAD-421F-88C0-FA1DE1A65301}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nedas_J" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Week 1</t>
   </si>
@@ -48,6 +48,12 @@
     <t>Week 3</t>
   </si>
   <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>week 4</t>
+  </si>
+  <si>
     <t>Week 1 (working in a group)</t>
   </si>
   <si>
@@ -64,6 +70,12 @@
   </si>
   <si>
     <t>Week 3 (total working hours)</t>
+  </si>
+  <si>
+    <t>Week 4 (working in a group)</t>
+  </si>
+  <si>
+    <t>Week 4 (total working hours)</t>
   </si>
 </sst>
 </file>
@@ -428,10 +440,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -460,6 +472,14 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.19791666666666666</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -467,10 +487,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCAF3D7-75AC-4D5B-A4BA-6C0DF3B5896A}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -499,6 +519,14 @@
         <v>0.17361111111111113</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.13541666666666666</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -506,10 +534,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D83133-5BF0-4B81-B3C4-8ED758F5ACF4}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -538,6 +566,14 @@
         <v>0.25347222222222221</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.1423611111111111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -545,10 +581,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923CEF60-EE42-4C46-B16B-E987EC9AEAC6}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -577,6 +613,14 @@
         <v>0.18402777777777779</v>
       </c>
     </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.125</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -584,10 +628,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4035CA1-48AA-4D41-9C1D-EBE4F8897610}">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView zoomScale="189" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -600,7 +644,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" s="1">
         <v>6.25E-2</v>
@@ -608,7 +652,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <f>SUM(Nedas_J!B1, Adomas_J!B1, Aistė_G!B1, Gabrielius_D!B1) + 4 * B1</f>
@@ -618,7 +662,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>8.3333333333333329E-2</v>
@@ -626,7 +670,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" s="3">
         <f>SUM(Nedas_J!B2, Adomas_J!B2, Aistė_G!B2, Gabrielius_D!B2) + 4 * B3</f>
@@ -635,7 +679,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -643,11 +687,28 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" s="3">
         <f>SUM(Nedas_J!B3, Adomas_J!B3, Aistė_G!B3, Gabrielius_D!B3) + 4 * B5</f>
         <v>1.1527777777777777</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="3">
+        <f>SUM(Nedas_J!B4, Adomas_J!B4, Aistė_G!B4, Gabrielius_D!B4) + 4 * B7</f>
+        <v>0.60069444444444442</v>
       </c>
     </row>
   </sheetData>

--- a/timelogs/time_logs.xlsx
+++ b/timelogs/time_logs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25721"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11009"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vult-my.sharepoint.com/personal/nedas_janusauskas_mif_stud_vu_lt/Documents/3 Pusmetis/PBL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="342" documentId="11_9248D3AD81FF8E02EF2EE2999A3E8C1851038385" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AF7B02AA-6DAD-421F-88C0-FA1DE1A65301}"/>
+  <xr:revisionPtr revIDLastSave="382" documentId="11_9248D3AD81FF8E02EF2EE2999A3E8C1851038385" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B106AFF-DA00-2440-9360-E7A14A84C3BC}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nedas_J" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
   <si>
     <t>Week 1</t>
   </si>
@@ -51,12 +51,18 @@
     <t>Week 4</t>
   </si>
   <si>
+    <t>Week 5</t>
+  </si>
+  <si>
     <t>week 4</t>
   </si>
   <si>
     <t>Week 1 (working in a group)</t>
   </si>
   <si>
+    <t>Total</t>
+  </si>
+  <si>
     <t>Week 1 (total working  hours)</t>
   </si>
   <si>
@@ -76,6 +82,12 @@
   </si>
   <si>
     <t>Week 4 (total working hours)</t>
+  </si>
+  <si>
+    <t>Week 5 (working in a group)</t>
+  </si>
+  <si>
+    <t>Week 5 (total working hours)</t>
   </si>
 </sst>
 </file>
@@ -85,7 +97,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[hh]:mm"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -121,14 +133,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Įprastas" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -440,15 +453,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -456,7 +469,7 @@
         <v>0.17361111111111113</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -464,7 +477,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -472,12 +485,20 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>0.19791666666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.58333333333333337</v>
       </c>
     </row>
   </sheetData>
@@ -487,15 +508,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCAF3D7-75AC-4D5B-A4BA-6C0DF3B5896A}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -503,7 +524,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -511,7 +532,7 @@
         <v>0.14930555555555555</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -519,12 +540,20 @@
         <v>0.17361111111111113</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
         <v>0.13541666666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.30555555555555552</v>
       </c>
     </row>
   </sheetData>
@@ -534,15 +563,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D83133-5BF0-4B81-B3C4-8ED758F5ACF4}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -550,7 +579,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -558,7 +587,7 @@
         <v>0.13541666666666666</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -566,12 +595,20 @@
         <v>0.25347222222222221</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>0.1423611111111111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.15277777777777776</v>
       </c>
     </row>
   </sheetData>
@@ -581,15 +618,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923CEF60-EE42-4C46-B16B-E987EC9AEAC6}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -597,7 +634,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -605,7 +642,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -613,12 +650,20 @@
         <v>0.18402777777777779</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>0.125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.20833333333333334</v>
       </c>
     </row>
   </sheetData>
@@ -628,31 +673,38 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4035CA1-48AA-4D41-9C1D-EBE4F8897610}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1">
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="4">
+        <f>SUM(B2+B4+B6+B8+B10)</f>
+        <v>4.885416666666667</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <f>SUM(Nedas_J!B1, Adomas_J!B1, Aistė_G!B1, Gabrielius_D!B1) + 4 * B1</f>
@@ -660,55 +712,72 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B4" s="3">
         <f>SUM(Nedas_J!B2, Adomas_J!B2, Aistė_G!B2, Gabrielius_D!B2) + 4 * B3</f>
         <v>1.0763888888888888</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" s="3">
         <f>SUM(Nedas_J!B3, Adomas_J!B3, Aistė_G!B3, Gabrielius_D!B3) + 4 * B5</f>
         <v>1.1527777777777777</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" s="3">
         <f>SUM(Nedas_J!B4, Adomas_J!B4, Aistė_G!B4, Gabrielius_D!B4) + 4 * B7</f>
         <v>0.60069444444444442</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6.25E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="3">
+        <f>SUM(Nedas_J!B5, Adomas_J!B5, Aistė_G!B5, Gabrielius_D!B5) + 4 * B9</f>
+        <v>1.4999999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/timelogs/time_logs.xlsx
+++ b/timelogs/time_logs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11009"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vult-my.sharepoint.com/personal/nedas_janusauskas_mif_stud_vu_lt/Documents/3 Pusmetis/PBL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="382" documentId="11_9248D3AD81FF8E02EF2EE2999A3E8C1851038385" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B106AFF-DA00-2440-9360-E7A14A84C3BC}"/>
+  <xr:revisionPtr revIDLastSave="419" documentId="11_9248D3AD81FF8E02EF2EE2999A3E8C1851038385" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{803D8F1C-8FED-4395-9E7D-B7D0EDD29225}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nedas_J" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
   <si>
     <t>Week 1</t>
   </si>
@@ -54,6 +54,9 @@
     <t>Week 5</t>
   </si>
   <si>
+    <t>Week 6</t>
+  </si>
+  <si>
     <t>week 4</t>
   </si>
   <si>
@@ -88,6 +91,12 @@
   </si>
   <si>
     <t>Week 5 (total working hours)</t>
+  </si>
+  <si>
+    <t>Week 6 (working in a group)</t>
+  </si>
+  <si>
+    <t>Week 6 (total working hours)</t>
   </si>
 </sst>
 </file>
@@ -97,7 +106,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[hh]:mm"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,6 +119,12 @@
       <color rgb="FF444444"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -133,12 +148,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,15 +469,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -469,7 +488,7 @@
         <v>0.17361111111111113</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -477,7 +496,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -485,7 +504,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -493,12 +512,20 @@
         <v>0.19791666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>0.58333333333333337</v>
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.74305555555555547</v>
       </c>
     </row>
   </sheetData>
@@ -508,15 +535,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCAF3D7-75AC-4D5B-A4BA-6C0DF3B5896A}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -524,7 +554,7 @@
         <v>9.7222222222222224E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -532,7 +562,7 @@
         <v>0.14930555555555555</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -540,20 +570,28 @@
         <v>0.17361111111111113</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
         <v>0.13541666666666666</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>0.30555555555555552</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.46527777777777773</v>
       </c>
     </row>
   </sheetData>
@@ -563,15 +601,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D83133-5BF0-4B81-B3C4-8ED758F5ACF4}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -579,7 +620,7 @@
         <v>1.3888888888888888E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -587,7 +628,7 @@
         <v>0.13541666666666666</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -595,7 +636,7 @@
         <v>0.25347222222222221</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -603,12 +644,20 @@
         <v>0.1423611111111111</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>0.15277777777777776</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.41319444444444442</v>
       </c>
     </row>
   </sheetData>
@@ -618,15 +667,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923CEF60-EE42-4C46-B16B-E987EC9AEAC6}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -634,7 +686,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -642,7 +694,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -650,7 +702,7 @@
         <v>0.18402777777777779</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -658,12 +710,20 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.54166666666666663</v>
       </c>
     </row>
   </sheetData>
@@ -673,38 +733,38 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4035CA1-48AA-4D41-9C1D-EBE4F8897610}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="189" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView zoomScale="75" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" s="1">
         <v>6.25E-2</v>
       </c>
       <c r="D1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E1" s="4">
-        <f>SUM(B2+B4+B6+B8+B10)</f>
-        <v>4.885416666666667</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <f>SUM(B2+B4+B6+B8+B10+B12)</f>
+        <v>7.0277777777777786</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1">
         <f>SUM(Nedas_J!B1, Adomas_J!B1, Aistė_G!B1, Gabrielius_D!B1) + 4 * B1</f>
@@ -712,72 +772,89 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3">
         <f>SUM(Nedas_J!B2, Adomas_J!B2, Aistė_G!B2, Gabrielius_D!B2) + 4 * B3</f>
         <v>1.0763888888888888</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3">
         <f>SUM(Nedas_J!B3, Adomas_J!B3, Aistė_G!B3, Gabrielius_D!B3) + 4 * B5</f>
         <v>1.1527777777777777</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3">
         <f>SUM(Nedas_J!B4, Adomas_J!B4, Aistė_G!B4, Gabrielius_D!B4) + 4 * B7</f>
         <v>0.60069444444444442</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B9" s="1">
         <v>6.25E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3">
         <f>SUM(Nedas_J!B5, Adomas_J!B5, Aistė_G!B5, Gabrielius_D!B5) + 4 * B9</f>
-        <v>1.4999999999999998</v>
+        <v>1.4791666666666665</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="5">
+        <f>SUM(Nedas_J!B6, Adomas_J!B6, Aistė_G!B6, Gabrielius_D!B6) + 4 * B11</f>
+        <v>2.1631944444444442</v>
       </c>
     </row>
   </sheetData>

--- a/timelogs/time_logs.xlsx
+++ b/timelogs/time_logs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vult-my.sharepoint.com/personal/nedas_janusauskas_mif_stud_vu_lt/Documents/3 Pusmetis/PBL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="419" documentId="11_9248D3AD81FF8E02EF2EE2999A3E8C1851038385" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{803D8F1C-8FED-4395-9E7D-B7D0EDD29225}"/>
+  <xr:revisionPtr revIDLastSave="599" documentId="11_9248D3AD81FF8E02EF2EE2999A3E8C1851038385" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CEDFB497-2C3C-46C2-A9B3-C0CA59305DEA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15920" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nedas_J" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="33">
   <si>
     <t>Week 1</t>
   </si>
@@ -57,9 +57,24 @@
     <t>Week 6</t>
   </si>
   <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
     <t>week 4</t>
   </si>
   <si>
+    <t>neina ivest graziai</t>
+  </si>
+  <si>
     <t>Week 1 (working in a group)</t>
   </si>
   <si>
@@ -97,6 +112,30 @@
   </si>
   <si>
     <t>Week 6 (total working hours)</t>
+  </si>
+  <si>
+    <t>Week 7 (working in a group)</t>
+  </si>
+  <si>
+    <t>Week 7 (total working hours)</t>
+  </si>
+  <si>
+    <t>Week 8 (working in a group)</t>
+  </si>
+  <si>
+    <t>Week 8 (total working hours)</t>
+  </si>
+  <si>
+    <t>Week 9 (working in a group)</t>
+  </si>
+  <si>
+    <t>Week 9 (total working hours)</t>
+  </si>
+  <si>
+    <t>Week 10 (working in a group)</t>
+  </si>
+  <si>
+    <t>Week 10 (total working hours)</t>
   </si>
 </sst>
 </file>
@@ -148,16 +187,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Įprastas" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -469,10 +510,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4">
+        <v>0.17361111111111113</v>
+      </c>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.19791666666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.74305555555555547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.85416666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1.3541666666666667</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCAF3D7-75AC-4D5B-A4BA-6C0DF3B5896A}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -485,7 +625,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>0.17361111111111113</v>
+        <v>9.7222222222222224E-2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -493,7 +633,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.33333333333333331</v>
+        <v>0.14930555555555555</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -501,15 +641,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.54166666666666663</v>
+        <v>0.17361111111111113</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="B4" s="1">
-        <v>0.19791666666666666</v>
+        <v>0.13541666666666666</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -517,7 +657,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>0.5625</v>
+        <v>0.30555555555555552</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -525,7 +665,39 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>0.74305555555555547</v>
+        <v>0.46527777777777773</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.51388888888888895</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.36805555555555558</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.59027777777777779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.2986111111111111</v>
       </c>
     </row>
   </sheetData>
@@ -533,12 +705,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CCAF3D7-75AC-4D5B-A4BA-6C0DF3B5896A}">
-  <dimension ref="A1:B6"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D83133-5BF0-4B81-B3C4-8ED758F5ACF4}">
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -551,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>9.7222222222222224E-2</v>
+        <v>1.3888888888888888E-2</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -559,7 +731,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>0.14930555555555555</v>
+        <v>0.13541666666666666</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -567,15 +739,15 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0.17361111111111113</v>
+        <v>0.25347222222222221</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>0.13541666666666666</v>
+        <v>0.1423611111111111</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -583,7 +755,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>0.30555555555555552</v>
+        <v>0.15277777777777776</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -591,73 +763,39 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>0.46527777777777773</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97D83133-5BF0-4B81-B3C4-8ED758F5ACF4}">
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>1.3888888888888888E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.13541666666666666</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.25347222222222221</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.1423611111111111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.15277777777777776</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
         <v>0.41319444444444442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.54513888888888895</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.53472222222222221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0.27777777777777779</v>
       </c>
     </row>
   </sheetData>
@@ -667,18 +805,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{923CEF60-EE42-4C46-B16B-E987EC9AEAC6}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -686,7 +824,7 @@
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -694,7 +832,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -702,7 +840,7 @@
         <v>0.18402777777777779</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -710,7 +848,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -718,12 +856,47 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.43402777777777773</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.70833333333333337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="7">
+        <v>1.4166666666666667</v>
+      </c>
+      <c r="C10" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -733,10 +906,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4035CA1-48AA-4D41-9C1D-EBE4F8897610}">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -749,22 +922,22 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1">
         <v>6.25E-2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E1" s="4">
-        <f>SUM(B2+B4+B6+B8+B10+B12)</f>
-        <v>7.0277777777777786</v>
+        <f>SUM(B2+B4+B6+B8+B10+B12+B14+B16+B18+B20)</f>
+        <v>18.319444444444443</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1">
         <f>SUM(Nedas_J!B1, Adomas_J!B1, Aistė_G!B1, Gabrielius_D!B1) + 4 * B1</f>
@@ -774,7 +947,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1">
         <v>8.3333333333333329E-2</v>
@@ -782,7 +955,7 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3">
         <f>SUM(Nedas_J!B2, Adomas_J!B2, Aistė_G!B2, Gabrielius_D!B2) + 4 * B3</f>
@@ -791,7 +964,7 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -799,7 +972,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3">
         <f>SUM(Nedas_J!B3, Adomas_J!B3, Aistė_G!B3, Gabrielius_D!B3) + 4 * B5</f>
@@ -808,7 +981,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
         <v>0</v>
@@ -816,7 +989,7 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B8" s="3">
         <f>SUM(Nedas_J!B4, Adomas_J!B4, Aistė_G!B4, Gabrielius_D!B4) + 4 * B7</f>
@@ -825,7 +998,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B9" s="1">
         <v>6.25E-2</v>
@@ -833,7 +1006,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3">
         <f>SUM(Nedas_J!B5, Adomas_J!B5, Aistė_G!B5, Gabrielius_D!B5) + 4 * B9</f>
@@ -842,7 +1015,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B11" s="1">
         <v>0</v>
@@ -850,11 +1023,79 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B12" s="5">
         <f>SUM(Nedas_J!B6, Adomas_J!B6, Aistė_G!B6, Gabrielius_D!B6) + 4 * B11</f>
         <v>2.1631944444444442</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="5">
+        <f>SUM(Nedas_J!B7, Adomas_J!B7, Aistė_G!B7, Gabrielius_D!B7) + 4 * B13</f>
+        <v>2.3472222222222223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="6">
+        <f>SUM(Nedas_J!B8, Adomas_J!B8, Aistė_G!B8, Gabrielius_D!B8) + 4 * B15</f>
+        <v>2.9097222222222223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.13541666666666666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="6">
+        <f>SUM(Nedas_J!B9, Adomas_J!B9, Aistė_G!B9, Gabrielius_D!B9) + 4 * B17</f>
+        <v>3.375</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" s="6">
+        <f>SUM(Nedas_J!B10, Adomas_J!B10, Aistė_G!B10, Gabrielius_D!B10) + 4 * B19</f>
+        <v>2.6597222222222223</v>
       </c>
     </row>
   </sheetData>

--- a/timelogs/time_logs.xlsx
+++ b/timelogs/time_logs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26014"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vult-my.sharepoint.com/personal/nedas_janusauskas_mif_stud_vu_lt/Documents/3 Pusmetis/PBL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="846" documentId="11_9248D3AD81FF8E02EF2EE2999A3E8C1851038385" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EEA54A69-A569-4F99-AF85-53A3B97631C7}"/>
+  <xr:revisionPtr revIDLastSave="877" documentId="11_9248D3AD81FF8E02EF2EE2999A3E8C1851038385" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C5BBCAB7-444D-40AC-99C1-7E0E0E9EA07E}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Nedas_J" sheetId="1" r:id="rId1"/>
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -599,7 +599,7 @@
       </c>
       <c r="E1" s="4">
         <f>SUM(B1:B17)</f>
-        <v>9.3576388888888875</v>
+        <v>10.427083333333332</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -709,6 +709,9 @@
     <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>15</v>
+      </c>
+      <c r="B15" s="4">
+        <v>1.0694444444444444</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -731,12 +734,12 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -751,7 +754,7 @@
       </c>
       <c r="E1" s="4">
         <f>SUM(B1:B17)</f>
-        <v>4.65625</v>
+        <v>4.9131944444444446</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -861,6 +864,9 @@
     <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.25694444444444448</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -883,12 +889,12 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -903,7 +909,7 @@
       </c>
       <c r="E1" s="6">
         <f>SUM(B1:B17)</f>
-        <v>4.6597222222222223</v>
+        <v>5.2847222222222223</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -991,7 +997,7 @@
         <v>12</v>
       </c>
       <c r="B12" s="1">
-        <v>0.39583333333333331</v>
+        <v>0.40972222222222227</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1013,6 +1019,9 @@
     <row r="15" spans="1:5">
       <c r="A15" t="s">
         <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>0.61111111111111105</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1186,8 +1195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4035CA1-48AA-4D41-9C1D-EBE4F8897610}">
   <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="A15" zoomScale="75" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1210,7 +1219,7 @@
       </c>
       <c r="E1" s="4">
         <f>SUM(B2+B4+B6+B8+B10+B12+B14+B16+B18+B20+B22+B24+B26+B28+B30+B32+B34+B36)</f>
-        <v>26.479166666666668</v>
+        <v>28.430555555555557</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1408,7 +1417,7 @@
       </c>
       <c r="B24" s="6">
         <f>SUM(Nedas_J!B12, Adomas_J!B12, Aistė_G!B12, Gabrielius_D!B12) + 4 * B23</f>
-        <v>1.9479166666666665</v>
+        <v>1.9618055555555556</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1459,7 +1468,7 @@
       </c>
       <c r="B30" s="6">
         <f>SUM(Nedas_J!B15, Adomas_J!B15, Aistė_G!B15, Gabrielius_D!B15) + 4 * B29</f>
-        <v>0</v>
+        <v>1.9375</v>
       </c>
     </row>
     <row r="31" spans="1:2">
